--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Hspg2-Itga2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Hspg2-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>109.868896830711</v>
+        <v>139.028825</v>
       </c>
       <c r="H2">
-        <v>109.868896830711</v>
+        <v>417.086475</v>
       </c>
       <c r="I2">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="J2">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6441970520611791</v>
+        <v>2.625574666666667</v>
       </c>
       <c r="N2">
-        <v>0.6441970520611791</v>
+        <v>7.876723999999999</v>
       </c>
       <c r="O2">
-        <v>0.2416273118978948</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="P2">
-        <v>0.2416273118978948</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="Q2">
-        <v>70.77721945155784</v>
+        <v>365.0305608564333</v>
       </c>
       <c r="R2">
-        <v>70.77721945155784</v>
+        <v>3285.2750477079</v>
       </c>
       <c r="S2">
-        <v>0.09517148785785945</v>
+        <v>0.2342911393215286</v>
       </c>
       <c r="T2">
-        <v>0.09517148785785945</v>
+        <v>0.2342911393215286</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>109.868896830711</v>
+        <v>139.028825</v>
       </c>
       <c r="H3">
-        <v>109.868896830711</v>
+        <v>417.086475</v>
       </c>
       <c r="I3">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="J3">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.32323296953614</v>
+        <v>1.401354</v>
       </c>
       <c r="N3">
-        <v>1.32323296953614</v>
+        <v>4.204062</v>
       </c>
       <c r="O3">
-        <v>0.4963220871947144</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="P3">
-        <v>0.4963220871947144</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="Q3">
-        <v>145.3821466129615</v>
+        <v>194.8286000290501</v>
       </c>
       <c r="R3">
-        <v>145.3821466129615</v>
+        <v>1753.45740026145</v>
       </c>
       <c r="S3">
-        <v>0.1954899515457083</v>
+        <v>0.1250487481544795</v>
       </c>
       <c r="T3">
-        <v>0.1954899515457083</v>
+        <v>0.1250487481544795</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>109.868896830711</v>
+        <v>139.028825</v>
       </c>
       <c r="H4">
-        <v>109.868896830711</v>
+        <v>417.086475</v>
       </c>
       <c r="I4">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="J4">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.698647115963187</v>
+        <v>0.066056</v>
       </c>
       <c r="N4">
-        <v>0.698647115963187</v>
+        <v>0.198168</v>
       </c>
       <c r="O4">
-        <v>0.2620506009073908</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="P4">
-        <v>0.2620506009073908</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="Q4">
-        <v>76.75958790483317</v>
+        <v>9.183688064200002</v>
       </c>
       <c r="R4">
-        <v>76.75958790483317</v>
+        <v>82.65319257780001</v>
       </c>
       <c r="S4">
-        <v>0.103215755646619</v>
+        <v>0.005894456438624572</v>
       </c>
       <c r="T4">
-        <v>0.103215755646619</v>
+        <v>0.005894456438624571</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>104.417461478361</v>
+        <v>139.028825</v>
       </c>
       <c r="H5">
-        <v>104.417461478361</v>
+        <v>417.086475</v>
       </c>
       <c r="I5">
-        <v>0.3743339382457656</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="J5">
-        <v>0.3743339382457656</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6441970520611791</v>
+        <v>0.704398</v>
       </c>
       <c r="N5">
-        <v>0.6441970520611791</v>
+        <v>2.113194</v>
       </c>
       <c r="O5">
-        <v>0.2416273118978948</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="P5">
-        <v>0.2416273118978948</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="Q5">
-        <v>67.26542086807189</v>
+        <v>97.93162627235</v>
       </c>
       <c r="R5">
-        <v>67.26542086807189</v>
+        <v>881.3846364511501</v>
       </c>
       <c r="S5">
-        <v>0.09044930325047691</v>
+        <v>0.06285641465505436</v>
       </c>
       <c r="T5">
-        <v>0.09044930325047691</v>
+        <v>0.06285641465505436</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>104.417461478361</v>
+        <v>105.0686953333333</v>
       </c>
       <c r="H6">
-        <v>104.417461478361</v>
+        <v>315.206086</v>
       </c>
       <c r="I6">
-        <v>0.3743339382457656</v>
+        <v>0.3235223881606854</v>
       </c>
       <c r="J6">
-        <v>0.3743339382457656</v>
+        <v>0.3235223881606855</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.32323296953614</v>
+        <v>2.625574666666667</v>
       </c>
       <c r="N6">
-        <v>1.32323296953614</v>
+        <v>7.876723999999999</v>
       </c>
       <c r="O6">
-        <v>0.4963220871947144</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="P6">
-        <v>0.4963220871947144</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="Q6">
-        <v>138.1686276234371</v>
+        <v>275.8657047269182</v>
       </c>
       <c r="R6">
-        <v>138.1686276234371</v>
+        <v>2482.791342542264</v>
       </c>
       <c r="S6">
-        <v>0.1857902015379557</v>
+        <v>0.1770615865930913</v>
       </c>
       <c r="T6">
-        <v>0.1857902015379557</v>
+        <v>0.1770615865930914</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,122 +844,122 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>104.417461478361</v>
+        <v>105.0686953333333</v>
       </c>
       <c r="H7">
-        <v>104.417461478361</v>
+        <v>315.206086</v>
       </c>
       <c r="I7">
-        <v>0.3743339382457656</v>
+        <v>0.3235223881606854</v>
       </c>
       <c r="J7">
-        <v>0.3743339382457656</v>
+        <v>0.3235223881606855</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.698647115963187</v>
+        <v>1.401354</v>
       </c>
       <c r="N7">
-        <v>0.698647115963187</v>
+        <v>4.204062</v>
       </c>
       <c r="O7">
-        <v>0.2620506009073908</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="P7">
-        <v>0.2620506009073908</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="Q7">
-        <v>72.95095831805409</v>
+        <v>147.238436480148</v>
       </c>
       <c r="R7">
-        <v>72.95095831805409</v>
+        <v>1325.145928321332</v>
       </c>
       <c r="S7">
-        <v>0.098094433457333</v>
+        <v>0.094503487472168</v>
       </c>
       <c r="T7">
-        <v>0.098094433457333</v>
+        <v>0.094503487472168</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.170588326155078</v>
+        <v>105.0686953333333</v>
       </c>
       <c r="H8">
-        <v>0.170588326155078</v>
+        <v>315.206086</v>
       </c>
       <c r="I8">
-        <v>0.0006115548016996843</v>
+        <v>0.3235223881606854</v>
       </c>
       <c r="J8">
-        <v>0.0006115548016996843</v>
+        <v>0.3235223881606855</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.6441970520611791</v>
+        <v>0.066056</v>
       </c>
       <c r="N8">
-        <v>0.6441970520611791</v>
+        <v>0.198168</v>
       </c>
       <c r="O8">
-        <v>0.2416273118978948</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="P8">
-        <v>0.2416273118978948</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="Q8">
-        <v>0.1098924968251522</v>
+        <v>6.940417738938668</v>
       </c>
       <c r="R8">
-        <v>0.1098924968251522</v>
+        <v>62.46375965044801</v>
       </c>
       <c r="S8">
-        <v>0.0001477683428129449</v>
+        <v>0.004454636279242453</v>
       </c>
       <c r="T8">
-        <v>0.0001477683428129449</v>
+        <v>0.004454636279242453</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.170588326155078</v>
+        <v>105.0686953333333</v>
       </c>
       <c r="H9">
-        <v>0.170588326155078</v>
+        <v>315.206086</v>
       </c>
       <c r="I9">
-        <v>0.0006115548016996843</v>
+        <v>0.3235223881606854</v>
       </c>
       <c r="J9">
-        <v>0.0006115548016996843</v>
+        <v>0.3235223881606855</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.32323296953614</v>
+        <v>0.704398</v>
       </c>
       <c r="N9">
-        <v>1.32323296953614</v>
+        <v>2.113194</v>
       </c>
       <c r="O9">
-        <v>0.4963220871947144</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="P9">
-        <v>0.4963220871947144</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="Q9">
-        <v>0.2257280973863834</v>
+        <v>74.01017885540934</v>
       </c>
       <c r="R9">
-        <v>0.2257280973863834</v>
+        <v>666.091609698684</v>
       </c>
       <c r="S9">
-        <v>0.000303528155613537</v>
+        <v>0.04750267781618362</v>
       </c>
       <c r="T9">
-        <v>0.000303528155613537</v>
+        <v>0.04750267781618363</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.170588326155078</v>
+        <v>0.2092613333333333</v>
       </c>
       <c r="H10">
-        <v>0.170588326155078</v>
+        <v>0.6277839999999999</v>
       </c>
       <c r="I10">
-        <v>0.0006115548016996843</v>
+        <v>0.0006443472634251982</v>
       </c>
       <c r="J10">
-        <v>0.0006115548016996843</v>
+        <v>0.0006443472634251983</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.698647115963187</v>
+        <v>2.625574666666667</v>
       </c>
       <c r="N10">
-        <v>0.698647115963187</v>
+        <v>7.876723999999999</v>
       </c>
       <c r="O10">
-        <v>0.2620506009073908</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="P10">
-        <v>0.2620506009073908</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="Q10">
-        <v>0.1191810420852327</v>
+        <v>0.5494312555128887</v>
       </c>
       <c r="R10">
-        <v>0.1191810420852327</v>
+        <v>4.944881299615999</v>
       </c>
       <c r="S10">
-        <v>0.0001602583032732025</v>
+        <v>0.0003526468428587297</v>
       </c>
       <c r="T10">
-        <v>0.0001602583032732025</v>
+        <v>0.0003526468428587297</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.237257899283873</v>
+        <v>0.2092613333333333</v>
       </c>
       <c r="H11">
-        <v>0.237257899283873</v>
+        <v>0.6277839999999999</v>
       </c>
       <c r="I11">
-        <v>0.0008505635222443589</v>
+        <v>0.0006443472634251982</v>
       </c>
       <c r="J11">
-        <v>0.0008505635222443589</v>
+        <v>0.0006443472634251983</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6441970520611791</v>
+        <v>1.401354</v>
       </c>
       <c r="N11">
-        <v>0.6441970520611791</v>
+        <v>4.204062</v>
       </c>
       <c r="O11">
-        <v>0.2416273118978948</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="P11">
-        <v>0.2416273118978948</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="Q11">
-        <v>0.1528408392968991</v>
+        <v>0.293249206512</v>
       </c>
       <c r="R11">
-        <v>0.1528408392968991</v>
+        <v>2.639242858608</v>
       </c>
       <c r="S11">
-        <v>0.0002055193774783097</v>
+        <v>0.0001882190097662883</v>
       </c>
       <c r="T11">
-        <v>0.0002055193774783097</v>
+        <v>0.0001882190097662883</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.237257899283873</v>
+        <v>0.2092613333333333</v>
       </c>
       <c r="H12">
-        <v>0.237257899283873</v>
+        <v>0.6277839999999999</v>
       </c>
       <c r="I12">
-        <v>0.0008505635222443589</v>
+        <v>0.0006443472634251982</v>
       </c>
       <c r="J12">
-        <v>0.0008505635222443589</v>
+        <v>0.0006443472634251983</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>1.32323296953614</v>
+        <v>0.066056</v>
       </c>
       <c r="N12">
-        <v>1.32323296953614</v>
+        <v>0.198168</v>
       </c>
       <c r="O12">
-        <v>0.4963220871947144</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="P12">
-        <v>0.4963220871947144</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="Q12">
-        <v>0.3139474746153057</v>
+        <v>0.01382296663466667</v>
       </c>
       <c r="R12">
-        <v>0.3139474746153057</v>
+        <v>0.124406699712</v>
       </c>
       <c r="S12">
-        <v>0.0004221534626520081</v>
+        <v>8.872130032184541E-06</v>
       </c>
       <c r="T12">
-        <v>0.0004221534626520081</v>
+        <v>8.872130032184543E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.237257899283873</v>
+        <v>0.2092613333333333</v>
       </c>
       <c r="H13">
-        <v>0.237257899283873</v>
+        <v>0.6277839999999999</v>
       </c>
       <c r="I13">
-        <v>0.0008505635222443589</v>
+        <v>0.0006443472634251982</v>
       </c>
       <c r="J13">
-        <v>0.0008505635222443589</v>
+        <v>0.0006443472634251983</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.698647115963187</v>
+        <v>0.704398</v>
       </c>
       <c r="N13">
-        <v>0.698647115963187</v>
+        <v>2.113194</v>
       </c>
       <c r="O13">
-        <v>0.2620506009073908</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="P13">
-        <v>0.2620506009073908</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="Q13">
-        <v>0.1657595470741622</v>
+        <v>0.1474032646773333</v>
       </c>
       <c r="R13">
-        <v>0.1657595470741622</v>
+        <v>1.326629382096</v>
       </c>
       <c r="S13">
-        <v>0.0002228906821140411</v>
+        <v>9.460928076799573E-05</v>
       </c>
       <c r="T13">
-        <v>0.0002228906821140411</v>
+        <v>9.460928076799576E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.278026461590785</v>
+        <v>0.2582773333333333</v>
       </c>
       <c r="H14">
-        <v>0.278026461590785</v>
+        <v>0.774832</v>
       </c>
       <c r="I14">
-        <v>0.0009967177790984854</v>
+        <v>0.000795274933439325</v>
       </c>
       <c r="J14">
-        <v>0.0009967177790984854</v>
+        <v>0.0007952749334393251</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6441970520611791</v>
+        <v>2.625574666666667</v>
       </c>
       <c r="N14">
-        <v>0.6441970520611791</v>
+        <v>7.876723999999999</v>
       </c>
       <c r="O14">
-        <v>0.2416273118978948</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="P14">
-        <v>0.2416273118978948</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="Q14">
-        <v>0.1791038269517843</v>
+        <v>0.6781264233742221</v>
       </c>
       <c r="R14">
-        <v>0.1791038269517843</v>
+        <v>6.103137810368</v>
       </c>
       <c r="S14">
-        <v>0.0002408342376844068</v>
+        <v>0.0004352485226541537</v>
       </c>
       <c r="T14">
-        <v>0.0002408342376844068</v>
+        <v>0.0004352485226541538</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.278026461590785</v>
+        <v>0.2582773333333333</v>
       </c>
       <c r="H15">
-        <v>0.278026461590785</v>
+        <v>0.774832</v>
       </c>
       <c r="I15">
-        <v>0.0009967177790984854</v>
+        <v>0.000795274933439325</v>
       </c>
       <c r="J15">
-        <v>0.0009967177790984854</v>
+        <v>0.0007952749334393251</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.32323296953614</v>
+        <v>1.401354</v>
       </c>
       <c r="N15">
-        <v>1.32323296953614</v>
+        <v>4.204062</v>
       </c>
       <c r="O15">
-        <v>0.4963220871947144</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="P15">
-        <v>0.4963220871947144</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="Q15">
-        <v>0.3678937803804</v>
+        <v>0.361937974176</v>
       </c>
       <c r="R15">
-        <v>0.3678937803804</v>
+        <v>3.257441767584</v>
       </c>
       <c r="S15">
-        <v>0.0004946930484662405</v>
+        <v>0.000232306194129243</v>
       </c>
       <c r="T15">
-        <v>0.0004946930484662405</v>
+        <v>0.000232306194129243</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.278026461590785</v>
+        <v>0.2582773333333333</v>
       </c>
       <c r="H16">
-        <v>0.278026461590785</v>
+        <v>0.774832</v>
       </c>
       <c r="I16">
-        <v>0.0009967177790984854</v>
+        <v>0.000795274933439325</v>
       </c>
       <c r="J16">
-        <v>0.0009967177790984854</v>
+        <v>0.0007952749334393251</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.698647115963187</v>
+        <v>0.066056</v>
       </c>
       <c r="N16">
-        <v>0.698647115963187</v>
+        <v>0.198168</v>
       </c>
       <c r="O16">
-        <v>0.2620506009073908</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="P16">
-        <v>0.2620506009073908</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="Q16">
-        <v>0.1942423855518517</v>
+        <v>0.01706076753066666</v>
       </c>
       <c r="R16">
-        <v>0.1942423855518517</v>
+        <v>0.153546907776</v>
       </c>
       <c r="S16">
-        <v>0.0002611904929478381</v>
+        <v>1.095027948641191E-05</v>
       </c>
       <c r="T16">
-        <v>0.0002611904929478381</v>
+        <v>1.095027948641191E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>63.9697798931344</v>
+        <v>0.2582773333333333</v>
       </c>
       <c r="H17">
-        <v>63.9697798931344</v>
+        <v>0.774832</v>
       </c>
       <c r="I17">
-        <v>0.229330030601005</v>
+        <v>0.000795274933439325</v>
       </c>
       <c r="J17">
-        <v>0.229330030601005</v>
+        <v>0.0007952749334393251</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.6441970520611791</v>
+        <v>0.704398</v>
       </c>
       <c r="N17">
-        <v>0.6441970520611791</v>
+        <v>2.113194</v>
       </c>
       <c r="O17">
-        <v>0.2416273118978948</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="P17">
-        <v>0.2416273118978948</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="Q17">
-        <v>41.20914362815967</v>
+        <v>0.1819300370453333</v>
       </c>
       <c r="R17">
-        <v>41.20914362815967</v>
+        <v>1.637370333408</v>
       </c>
       <c r="S17">
-        <v>0.0554123988315828</v>
+        <v>0.0001167699371695164</v>
       </c>
       <c r="T17">
-        <v>0.0554123988315828</v>
+        <v>0.0001167699371695164</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>63.9697798931344</v>
+        <v>0.4764636666666667</v>
       </c>
       <c r="H18">
-        <v>63.9697798931344</v>
+        <v>1.429391</v>
       </c>
       <c r="I18">
-        <v>0.229330030601005</v>
+        <v>0.001467103620376766</v>
       </c>
       <c r="J18">
-        <v>0.229330030601005</v>
+        <v>0.001467103620376766</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.32323296953614</v>
+        <v>2.625574666666667</v>
       </c>
       <c r="N18">
-        <v>1.32323296953614</v>
+        <v>7.876723999999999</v>
       </c>
       <c r="O18">
-        <v>0.4963220871947144</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="P18">
-        <v>0.4963220871947144</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="Q18">
-        <v>84.64692180856549</v>
+        <v>1.250990932787111</v>
       </c>
       <c r="R18">
-        <v>84.64692180856549</v>
+        <v>11.258918395084</v>
       </c>
       <c r="S18">
-        <v>0.1138215594443185</v>
+        <v>0.0008029357603262946</v>
       </c>
       <c r="T18">
-        <v>0.1138215594443185</v>
+        <v>0.0008029357603262947</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4764636666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.429391</v>
+      </c>
+      <c r="I19">
+        <v>0.001467103620376766</v>
+      </c>
+      <c r="J19">
+        <v>0.001467103620376766</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.401354</v>
+      </c>
+      <c r="N19">
+        <v>4.204062</v>
+      </c>
+      <c r="O19">
+        <v>0.292108030017479</v>
+      </c>
+      <c r="P19">
+        <v>0.292108030017479</v>
+      </c>
+      <c r="Q19">
+        <v>0.6676942651380001</v>
+      </c>
+      <c r="R19">
+        <v>6.009248386242001</v>
+      </c>
+      <c r="S19">
+        <v>0.0004285527483797685</v>
+      </c>
+      <c r="T19">
+        <v>0.0004285527483797685</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.4764636666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.429391</v>
+      </c>
+      <c r="I20">
+        <v>0.001467103620376766</v>
+      </c>
+      <c r="J20">
+        <v>0.001467103620376766</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.066056</v>
+      </c>
+      <c r="N20">
+        <v>0.198168</v>
+      </c>
+      <c r="O20">
+        <v>0.01376917469164436</v>
+      </c>
+      <c r="P20">
+        <v>0.01376917469164436</v>
+      </c>
+      <c r="Q20">
+        <v>0.03147328396533334</v>
+      </c>
+      <c r="R20">
+        <v>0.283259555688</v>
+      </c>
+      <c r="S20">
+        <v>2.020080603971158E-05</v>
+      </c>
+      <c r="T20">
+        <v>2.020080603971159E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4764636666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.429391</v>
+      </c>
+      <c r="I21">
+        <v>0.001467103620376766</v>
+      </c>
+      <c r="J21">
+        <v>0.001467103620376766</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.704398</v>
+      </c>
+      <c r="N21">
+        <v>2.113194</v>
+      </c>
+      <c r="O21">
+        <v>0.1468296462765669</v>
+      </c>
+      <c r="P21">
+        <v>0.1468296462765669</v>
+      </c>
+      <c r="Q21">
+        <v>0.3356200538726666</v>
+      </c>
+      <c r="R21">
+        <v>3.020580484854</v>
+      </c>
+      <c r="S21">
+        <v>0.0002154143056309913</v>
+      </c>
+      <c r="T21">
+        <v>0.0002154143056309913</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>63.9697798931344</v>
-      </c>
-      <c r="H19">
-        <v>63.9697798931344</v>
-      </c>
-      <c r="I19">
-        <v>0.229330030601005</v>
-      </c>
-      <c r="J19">
-        <v>0.229330030601005</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.698647115963187</v>
-      </c>
-      <c r="N19">
-        <v>0.698647115963187</v>
-      </c>
-      <c r="O19">
-        <v>0.2620506009073908</v>
-      </c>
-      <c r="P19">
-        <v>0.2620506009073908</v>
-      </c>
-      <c r="Q19">
-        <v>44.69230223113821</v>
-      </c>
-      <c r="R19">
-        <v>44.69230223113821</v>
-      </c>
-      <c r="S19">
-        <v>0.06009607232510368</v>
-      </c>
-      <c r="T19">
-        <v>0.06009607232510368</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>79.72331333333334</v>
+      </c>
+      <c r="H22">
+        <v>239.16994</v>
+      </c>
+      <c r="I22">
+        <v>0.2454801274523863</v>
+      </c>
+      <c r="J22">
+        <v>0.2454801274523863</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.625574666666667</v>
+      </c>
+      <c r="N22">
+        <v>7.876723999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.5472931490143097</v>
+      </c>
+      <c r="P22">
+        <v>0.5472931490143097</v>
+      </c>
+      <c r="Q22">
+        <v>209.3195118307289</v>
+      </c>
+      <c r="R22">
+        <v>1883.87560647656</v>
+      </c>
+      <c r="S22">
+        <v>0.1343495919738506</v>
+      </c>
+      <c r="T22">
+        <v>0.1343495919738506</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>79.72331333333334</v>
+      </c>
+      <c r="H23">
+        <v>239.16994</v>
+      </c>
+      <c r="I23">
+        <v>0.2454801274523863</v>
+      </c>
+      <c r="J23">
+        <v>0.2454801274523863</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.401354</v>
+      </c>
+      <c r="N23">
+        <v>4.204062</v>
+      </c>
+      <c r="O23">
+        <v>0.292108030017479</v>
+      </c>
+      <c r="P23">
+        <v>0.292108030017479</v>
+      </c>
+      <c r="Q23">
+        <v>111.72058403292</v>
+      </c>
+      <c r="R23">
+        <v>1005.48525629628</v>
+      </c>
+      <c r="S23">
+        <v>0.07170671643855624</v>
+      </c>
+      <c r="T23">
+        <v>0.07170671643855622</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>79.72331333333334</v>
+      </c>
+      <c r="H24">
+        <v>239.16994</v>
+      </c>
+      <c r="I24">
+        <v>0.2454801274523863</v>
+      </c>
+      <c r="J24">
+        <v>0.2454801274523863</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.066056</v>
+      </c>
+      <c r="N24">
+        <v>0.198168</v>
+      </c>
+      <c r="O24">
+        <v>0.01376917469164436</v>
+      </c>
+      <c r="P24">
+        <v>0.01376917469164436</v>
+      </c>
+      <c r="Q24">
+        <v>5.266203185546667</v>
+      </c>
+      <c r="R24">
+        <v>47.39582866992</v>
+      </c>
+      <c r="S24">
+        <v>0.00338005875821903</v>
+      </c>
+      <c r="T24">
+        <v>0.00338005875821903</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>79.72331333333334</v>
+      </c>
+      <c r="H25">
+        <v>239.16994</v>
+      </c>
+      <c r="I25">
+        <v>0.2454801274523863</v>
+      </c>
+      <c r="J25">
+        <v>0.2454801274523863</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.704398</v>
+      </c>
+      <c r="N25">
+        <v>2.113194</v>
+      </c>
+      <c r="O25">
+        <v>0.1468296462765669</v>
+      </c>
+      <c r="P25">
+        <v>0.1468296462765669</v>
+      </c>
+      <c r="Q25">
+        <v>56.15694246537333</v>
+      </c>
+      <c r="R25">
+        <v>505.41248218836</v>
+      </c>
+      <c r="S25">
+        <v>0.03604376028176045</v>
+      </c>
+      <c r="T25">
+        <v>0.03604376028176045</v>
       </c>
     </row>
   </sheetData>
